--- a/test/vorlage_psnr.xlsx
+++ b/test/vorlage_psnr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -415,11 +415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279657624"/>
-        <c:axId val="279655272"/>
+        <c:axId val="287984880"/>
+        <c:axId val="287987232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279657624"/>
+        <c:axId val="287984880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -542,12 +542,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279655272"/>
+        <c:crossAx val="287987232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279655272"/>
+        <c:axId val="287987232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,7 +588,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-CH" sz="1800"/>
-                  <a:t>Standardabweichung (Meter)</a:t>
+                  <a:t>PSNR-HVS-M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" sz="1800" baseline="0"/>
+                  <a:t> (dB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -660,7 +668,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279657624"/>
+        <c:crossAx val="287984880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1334,16 +1342,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>185056</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1197427</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>160564</xdr:rowOff>
+      <xdr:rowOff>117021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
+      <xdr:colOff>130628</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1654,23 +1662,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
@@ -1756,7 +1764,7 @@
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>110</v>
       </c>
@@ -1791,7 +1799,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>120</v>
       </c>
